--- a/xlfiles/Chapter2.xlsx
+++ b/xlfiles/Chapter2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/xlfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A292903A-D33A-4D6F-A625-AA7B54E73505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EB3351-18E8-FA43-B518-7431005AA44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{664FB022-1BC7-BB4C-9AD7-74455482708D}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{664FB022-1BC7-BB4C-9AD7-74455482708D}"/>
   </bookViews>
   <sheets>
     <sheet name="B.1 Exposure" sheetId="1" r:id="rId1"/>
@@ -619,9 +619,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -630,10 +627,13 @@
     <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,7 +651,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1337,7 +1337,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3844,9 +3844,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3862,7 +3862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1973</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>68119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1974</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>65456</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1975</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>60537</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1976</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>63270</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1977</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>67156</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1978</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>71543</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1979</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>75681</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1980</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>98960</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1981</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>102974</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1982</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>106810</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1983</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>110779</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1984</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>114307</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1985</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>117306</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1986</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>123304</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1987</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>125533</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1988</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>131265</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1989</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>139661</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1990</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>152895</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1991</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>160331</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1992</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>162900</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1993</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>170045</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1994</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>173248</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1995</v>
       </c>
@@ -4055,15 +4055,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFBD052-653A-4648-936E-EB05816D6A1F}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="13" width="8" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -4082,7 +4082,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:26" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -4197,7 +4197,7 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
     </row>
-    <row r="6" spans="1:26" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1971</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1972</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1973</v>
       </c>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1974</v>
       </c>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:26" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1975</v>
       </c>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:26" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1976</v>
       </c>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:26" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1977</v>
       </c>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:26" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1978</v>
       </c>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:26" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1979</v>
       </c>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:26" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1980</v>
       </c>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:26" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1981</v>
       </c>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1982</v>
       </c>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1983</v>
       </c>
@@ -4628,7 +4628,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1984</v>
       </c>
@@ -4663,7 +4663,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1985</v>
       </c>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1986</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
     </row>
-    <row r="22" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1987</v>
       </c>
@@ -4768,7 +4768,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
     </row>
-    <row r="23" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1988</v>
       </c>
@@ -4799,7 +4799,7 @@
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
     </row>
-    <row r="24" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1989</v>
       </c>
@@ -4830,7 +4830,7 @@
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
     </row>
-    <row r="25" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>1990</v>
       </c>
@@ -4859,7 +4859,7 @@
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
     </row>
-    <row r="26" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1991</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
     </row>
-    <row r="27" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1992</v>
       </c>
@@ -4911,7 +4911,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1993</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>1994</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
     </row>
-    <row r="30" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>1995</v>
       </c>
@@ -4983,25 +4983,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C27273-CD99-D446-9435-99E00B9EB402}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="10.875" style="1"/>
-    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.875" style="1"/>
+    <col min="1" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -5061,11 +5061,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="27"/>
     </row>
-    <row r="7" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1978</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>1.3977607872188753</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1979</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1980</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1.0105092966855296</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1981</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1982</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1983</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1984</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1985</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>0.85247131434027246</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1986</v>
       </c>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1987</v>
       </c>
@@ -5586,7 +5586,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1988</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>14.33885910477723</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1989</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>16.759989334552241</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1990</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>12.172331574312084</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1991</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>7.8485234965172177</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1992</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>5.613387305012755</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1993</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>7.3664825046040514</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1994</v>
       </c>
@@ -5903,7 +5903,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1995</v>
       </c>
@@ -5926,13 +5926,13 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="Q25" s="1" cm="1">
         <f t="array" aca="1" ref="Q25:Q30" ca="1">OFFSET($B$19:$B$24,D5,0)</f>
         <v>160331</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -5961,13 +5961,13 @@
         <v>170045</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="Q28" s="1">
         <f ca="1"/>
         <v>173248</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -6020,51 +6020,51 @@
         <v>175941</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="54" t="s">
+    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="52">
         <f ca="1">SUMPRODUCT(OFFSET($C$7:$C$24,0,C5,18-C5),OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!C5))/SUM(OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!C5))</f>
         <v>448.93349119055551</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="52">
         <f ca="1">SUMPRODUCT(OFFSET($C$7:$C$24,0,D5,18-D5),OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!D5))/SUM(OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!D5))</f>
         <v>169.63409373944467</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="52">
         <f ca="1">SUMPRODUCT(OFFSET($C$7:$C$24,0,E5,18-E5),OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!E5))/SUM(OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!E5))</f>
         <v>29.47623930022695</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="52">
         <f ca="1">SUMPRODUCT(OFFSET($C$7:$C$24,0,F5,18-F5),OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!F5))/SUM(OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!F5))</f>
         <v>12.261397386873282</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="52">
         <f ca="1">SUMPRODUCT(OFFSET($C$7:$C$24,0,G5,18-G5),OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!G5))/SUM(OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!G5))</f>
         <v>8.1527619166714178</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="52">
         <f ca="1">SUMPRODUCT(OFFSET($C$7:$C$24,0,H5,18-H5),OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!H5))/SUM(OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!H5))</f>
         <v>5.6423510793205791</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="52">
         <f ca="1">SUMPRODUCT(OFFSET($C$7:$C$24,0,I5,18-I5),OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!I5))/SUM(OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!I5))</f>
         <v>4.7036581563329065</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="52">
         <f ca="1">SUMPRODUCT(OFFSET($C$7:$C$24,0,J5,18-J5),OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!J5))/SUM(OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!J5))</f>
         <v>1.2728454544991692</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="52">
         <f ca="1">SUMPRODUCT(OFFSET($C$7:$C$24,0,K5,18-K5),OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!K5))/SUM(OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!K5))</f>
         <v>0.47746508059133097</v>
       </c>
-      <c r="L30" s="53">
+      <c r="L30" s="52">
         <f ca="1">SUMPRODUCT(OFFSET($C$7:$C$24,0,L5,18-L5),OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!L5))/SUM(OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!L5))</f>
         <v>0.10849940976321089</v>
       </c>
-      <c r="M30" s="53">
+      <c r="M30" s="52">
         <f ca="1">SUMPRODUCT(OFFSET($C$7:$C$24,0,M5,18-M5),OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!M5))/SUM(OFFSET('Table 2.1'!$B$7:$B$24,0,0,18-'Table 2.1'!M5))</f>
         <v>0.37577032917480835</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -6122,56 +6122,56 @@
         <v>0.3071554943974838</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="54" t="s">
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="54">
         <f ca="1">SUMPRODUCT(OFFSET($C$19:$C$24,-C5,C5),OFFSET($B$19:$B$24,-C5,0))/SUM(OFFSET($B$19:$B$24,-C5,0))</f>
         <v>380.16396077800999</v>
       </c>
-      <c r="D32" s="55">
+      <c r="D32" s="54">
         <f t="shared" ref="D32:M32" ca="1" si="0">SUMPRODUCT(OFFSET($C$19:$C$24,-D5,D5),OFFSET($B$19:$B$24,-D5,0))/SUM(OFFSET($B$19:$B$24,-D5,0))</f>
         <v>117.71697877132252</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="54">
         <f t="shared" ca="1" si="0"/>
         <v>20.826586500664597</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="54">
         <f t="shared" ca="1" si="0"/>
         <v>10.314181426451292</v>
       </c>
-      <c r="G32" s="55">
+      <c r="G32" s="54">
         <f t="shared" ca="1" si="0"/>
         <v>8.0433235012707254</v>
       </c>
-      <c r="H32" s="55">
+      <c r="H32" s="54">
         <f t="shared" ca="1" si="0"/>
         <v>5.3166979761103041</v>
       </c>
-      <c r="I32" s="55">
+      <c r="I32" s="54">
         <f t="shared" ca="1" si="0"/>
         <v>5.3235663635782879</v>
       </c>
-      <c r="J32" s="55">
+      <c r="J32" s="54">
         <f t="shared" ca="1" si="0"/>
         <v>1.5225039931127455</v>
       </c>
-      <c r="K32" s="55">
+      <c r="K32" s="54">
         <f t="shared" ca="1" si="0"/>
         <v>0.28651694246310022</v>
       </c>
-      <c r="L32" s="55">
+      <c r="L32" s="54">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="55">
+      <c r="M32" s="54">
         <f t="shared" ca="1" si="0"/>
         <v>0.3071554943974838</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -6220,56 +6220,56 @@
         <v>0.29206289866585666</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="54" t="s">
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="55">
         <f ca="1">SUMPRODUCT(OFFSET($C$22:$C$24,-C5,C5),OFFSET($B$22:$B$24,-C5,0))/SUM(OFFSET($B$22:$B$24,-C5,0))</f>
         <v>373.43471344326451</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D34" s="55">
         <f t="shared" ref="D34:M34" ca="1" si="1">SUMPRODUCT(OFFSET($C$22:$C$24,-D5,D5),OFFSET($B$22:$B$24,-D5,0))/SUM(OFFSET($B$22:$B$24,-D5,0))</f>
         <v>102.72761575130434</v>
       </c>
-      <c r="E34" s="56">
+      <c r="E34" s="55">
         <f t="shared" ca="1" si="1"/>
         <v>18.245363650370177</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="55">
         <f t="shared" ca="1" si="1"/>
         <v>6.9309384490660033</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="55">
         <f t="shared" ca="1" si="1"/>
         <v>6.1825576799510698</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H34" s="55">
         <f t="shared" ca="1" si="1"/>
         <v>3.0673326711040745</v>
       </c>
-      <c r="I34" s="56">
+      <c r="I34" s="55">
         <f t="shared" ca="1" si="1"/>
         <v>5.5491236168178801</v>
       </c>
-      <c r="J34" s="56">
+      <c r="J34" s="55">
         <f t="shared" ca="1" si="1"/>
         <v>1.0523491062925214</v>
       </c>
-      <c r="K34" s="56">
+      <c r="K34" s="55">
         <f t="shared" ca="1" si="1"/>
         <v>0.5462346678756661</v>
       </c>
-      <c r="L34" s="56">
+      <c r="L34" s="55">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34" s="56">
+      <c r="M34" s="55">
         <f t="shared" ca="1" si="1"/>
         <v>0.29206289866585666</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -6284,7 +6284,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.37577032917480835</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="B40" s="3"/>
     </row>
-    <row r="42" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -6419,12 +6419,12 @@
       </c>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -6451,12 +6451,12 @@
         <v>-0.97877714888559542</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="G46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>-1.7480705329812416</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>3.8736989621988922</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>0.53769914915643102</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>0.20250570844257756</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I56" s="5"/>
     </row>
   </sheetData>
@@ -6585,19 +6585,19 @@
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="N6" s="23"/>
     </row>
@@ -7874,23 +7874,23 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="10.875" style="1"/>
-    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="45" width="10.875" style="1"/>
-    <col min="46" max="46" width="10.875" style="1" customWidth="1"/>
-    <col min="47" max="16384" width="10.875" style="1"/>
+    <col min="1" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="45" width="10.83203125" style="1"/>
+    <col min="46" max="46" width="10.83203125" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -7950,11 +7950,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="27"/>
     </row>
-    <row r="7" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1978</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>1.7889087656529516</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1979</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1980</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>1.4245014245014245</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1981</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1982</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1983</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1984</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1985</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>1.1918951132300357</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1986</v>
       </c>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1987</v>
       </c>
@@ -8475,7 +8475,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1988</v>
       </c>
@@ -8519,7 +8519,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1989</v>
       </c>
@@ -8560,7 +8560,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1990</v>
       </c>
@@ -8598,7 +8598,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1991</v>
       </c>
@@ -8633,7 +8633,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1992</v>
       </c>
@@ -8665,7 +8665,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1993</v>
       </c>
@@ -8694,7 +8694,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1994</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1995</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="26" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -8807,56 +8807,56 @@
         <v>0.49123956115932538</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="54" t="s">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="52">
         <f>SUMPRODUCT(C7:C23,$B7:$B23)/SUM($B7:$B23)</f>
         <v>728.43019772318758</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="52">
         <f ca="1">SUMPRODUCT(OFFSET($D$7:$D$23,0,C5,17-C5),OFFSET($B$7:$B$23,0,0,17-C5))/SUM(OFFSET($B$7:$B$23,0,0,17-C5))</f>
         <v>271.56980227681248</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="52">
         <f t="shared" ref="E30:M30" ca="1" si="1">SUMPRODUCT(OFFSET($D$7:$D$23,0,D5,17-D5),OFFSET($B$7:$B$23,0,0,17-D5))/SUM(OFFSET($B$7:$B$23,0,0,17-D5))</f>
         <v>46.205410581757242</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="52">
         <f t="shared" ca="1" si="1"/>
         <v>18.768128305749872</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="52">
         <f t="shared" ca="1" si="1"/>
         <v>12.225388362901002</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="52">
         <f t="shared" ca="1" si="1"/>
         <v>8.2431224550600852</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="52">
         <f t="shared" ca="1" si="1"/>
         <v>6.6602212912235474</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="52">
         <f t="shared" ca="1" si="1"/>
         <v>1.762632197414806</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="52">
         <f t="shared" ca="1" si="1"/>
         <v>0.64641241111829351</v>
       </c>
-      <c r="L30" s="53">
+      <c r="L30" s="52">
         <f t="shared" ca="1" si="1"/>
         <v>0.14347202295552366</v>
       </c>
-      <c r="M30" s="53">
+      <c r="M30" s="52">
         <f t="shared" ca="1" si="1"/>
         <v>0.49123956115932538</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -8905,56 +8905,56 @@
         <v>0.3996802557953637</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="54" t="s">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="56">
         <f>SUMPRODUCT(C18:C23,$B18:$B23)/SUM($B18:$B23)</f>
         <v>766.83188764973147</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D32" s="56">
         <f ca="1">SUMPRODUCT(OFFSET($D$18:$D$23,-C5,C5),OFFSET($B$18:$B$23,-C5,0))/SUM(OFFSET($B$18:$B$23,-C5,0))</f>
         <v>233.16811235026847</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="56">
         <f t="shared" ref="E32:M32" ca="1" si="2">SUMPRODUCT(OFFSET($D$18:$D$23,-D5,D5),OFFSET($B$18:$B$23,-D5,0))/SUM(OFFSET($B$18:$B$23,-D5,0))</f>
         <v>39.824854045037533</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="56">
         <f t="shared" ca="1" si="2"/>
         <v>18.939393939393938</v>
       </c>
-      <c r="G32" s="57">
+      <c r="G32" s="56">
         <f t="shared" ca="1" si="2"/>
         <v>14.040234702430846</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="56">
         <f t="shared" ca="1" si="2"/>
         <v>8.7481774630285365</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="56">
         <f t="shared" ca="1" si="2"/>
         <v>8.0955272212102809</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J32" s="56">
         <f t="shared" ca="1" si="2"/>
         <v>2.180376610505451</v>
       </c>
-      <c r="K32" s="57">
+      <c r="K32" s="56">
         <f t="shared" ca="1" si="2"/>
         <v>0.39231071008238527</v>
       </c>
-      <c r="L32" s="57">
+      <c r="L32" s="56">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="M32" s="57">
+      <c r="M32" s="56">
         <f t="shared" ca="1" si="2"/>
         <v>0.3996802557953637</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -9003,56 +9003,56 @@
         <v>0.37850113550340653</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="54" t="s">
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="55">
         <f>SUMPRODUCT(C21:C23,$B21:$B23)/SUM($B21:$B23)</f>
         <v>789.72907399919131</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D34" s="55">
         <f ca="1">SUMPRODUCT(OFFSET($D$21:$D$23,-C5,C5),OFFSET($B$21:$B$23,-C5,0))/SUM(OFFSET($B$21:$B$23,-C5,0))</f>
         <v>210.27092600080874</v>
       </c>
-      <c r="E34" s="56">
+      <c r="E34" s="55">
         <f t="shared" ref="E34:M34" ca="1" si="3">SUMPRODUCT(OFFSET($D$21:$D$23,-D5,D5),OFFSET($B$21:$B$23,-D5,0))/SUM(OFFSET($B$21:$B$23,-D5,0))</f>
         <v>36.555645816409424</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="55">
         <f t="shared" ca="1" si="3"/>
         <v>13.675922088686283</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="55">
         <f t="shared" ca="1" si="3"/>
         <v>11.819333051920642</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H34" s="55">
         <f t="shared" ca="1" si="3"/>
         <v>5.5698371893744643</v>
       </c>
-      <c r="I34" s="56">
+      <c r="I34" s="55">
         <f t="shared" ca="1" si="3"/>
         <v>9.4057289439931591</v>
       </c>
-      <c r="J34" s="56">
+      <c r="J34" s="55">
         <f t="shared" ca="1" si="3"/>
         <v>1.6645859342488556</v>
       </c>
-      <c r="K34" s="56">
+      <c r="K34" s="55">
         <f t="shared" ca="1" si="3"/>
         <v>0.81070125658694769</v>
       </c>
-      <c r="L34" s="56">
+      <c r="L34" s="55">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="M34" s="56">
+      <c r="M34" s="55">
         <f t="shared" ca="1" si="3"/>
         <v>0.37850113550340653</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -9067,7 +9067,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>0.49123956115932538</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="B40" s="3"/>
     </row>
-    <row r="42" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -9202,12 +9202,12 @@
       </c>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -9229,12 +9229,12 @@
         <v>-0.71082336557288794</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>-1.4312158546724731</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>0.69518495287076132</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>0.58636122608896146</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>0.3388245373948528</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I56" s="5"/>
     </row>
   </sheetData>
@@ -9339,19 +9339,19 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="N6" s="23"/>
     </row>
@@ -10628,21 +10628,21 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="10.875" style="1"/>
-    <col min="13" max="13" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="1"/>
+    <col min="1" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -10695,11 +10695,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="27"/>
     </row>
-    <row r="7" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1978</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>1.0016393442622951</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1979</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1980</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>1.0012853470437018</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1981</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1982</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1983</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1984</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1985</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>1.0010672358591248</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1986</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1987</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1988</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1989</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1990</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1991</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1992</v>
       </c>
@@ -11360,7 +11360,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1993</v>
       </c>
@@ -11382,7 +11382,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1994</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1995</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="P25" s="1">
         <f ca="1"/>
         <v>564</v>
@@ -11459,7 +11459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -11490,7 +11490,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="53" t="s">
         <v>81</v>
       </c>
       <c r="P27" s="1">
@@ -11506,7 +11506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="P28" s="1">
         <f ca="1"/>
         <v>619</v>
@@ -11520,7 +11520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -11565,52 +11565,52 @@
         <v>1.000448631673396</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="54" t="s">
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="57">
         <f ca="1">SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!C5,2+'Table 2.5'!C5))/SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!C5,1+'Table 2.5'!C5))</f>
         <v>1.3728151346905202</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="57">
         <f ca="1">SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!D5,2+'Table 2.5'!D5))/SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!D5,1+'Table 2.5'!D5))</f>
         <v>1.0462054105817573</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="57">
         <f ca="1">SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!E5,2+'Table 2.5'!E5))/SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!E5,1+'Table 2.5'!E5))</f>
         <v>1.0179445350734095</v>
       </c>
-      <c r="F30" s="58">
+      <c r="F30" s="57">
         <f ca="1">SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!F5,2+'Table 2.5'!F5))/SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!F5,1+'Table 2.5'!F5))</f>
         <v>1.0114605773373546</v>
       </c>
-      <c r="G30" s="58">
+      <c r="G30" s="57">
         <f ca="1">SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!G5,2+'Table 2.5'!G5))/SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!G5,1+'Table 2.5'!G5))</f>
         <v>1.007626573555086</v>
       </c>
-      <c r="H30" s="58">
+      <c r="H30" s="57">
         <f ca="1">SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!H5,2+'Table 2.5'!H5))/SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!H5,1+'Table 2.5'!H5))</f>
         <v>1.006104164615536</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="57">
         <f ca="1">SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!I5,2+'Table 2.5'!I5))/SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!I5,1+'Table 2.5'!I5))</f>
         <v>1.0016044496737619</v>
       </c>
-      <c r="J30" s="58">
+      <c r="J30" s="57">
         <f ca="1">SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!J5,2+'Table 2.5'!J5))/SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!J5,1+'Table 2.5'!J5))</f>
         <v>1.0005888587916618</v>
       </c>
-      <c r="K30" s="58">
+      <c r="K30" s="57">
         <f ca="1">SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!K5,2+'Table 2.5'!K5))/SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!K5,1+'Table 2.5'!K5))</f>
         <v>1.0001308557969117</v>
       </c>
-      <c r="L30" s="58">
+      <c r="L30" s="57">
         <f ca="1">SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!L5,2+'Table 2.5'!L5))/SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!L5,1+'Table 2.5'!L5))</f>
         <v>1.000448631673396</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -11655,47 +11655,47 @@
         <v>1.0003646308113034</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="54" t="s">
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="58">
         <f ca="1">SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!C5,0,,2+'Table 2.5'!C5))/SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!C5,0,,1+'Table 2.5'!C5))</f>
         <v>1.3040667923511986</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="58">
         <f ca="1">SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!D5,0,,2+'Table 2.5'!D5))/SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!D5,0,,1+'Table 2.5'!D5))</f>
         <v>1.0398248540450374</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="58">
         <f ca="1">SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!E5,0,,2+'Table 2.5'!E5))/SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!E5,0,,1+'Table 2.5'!E5))</f>
         <v>1.0182002022244692</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="58">
         <f ca="1">SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!F5,0,,2+'Table 2.5'!F5))/SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!F5,0,,1+'Table 2.5'!F5))</f>
         <v>1.0131837859110586</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="58">
         <f ca="1">SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!G5,0,,2+'Table 2.5'!G5))/SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!G5,0,,1+'Table 2.5'!G5))</f>
         <v>1.0080583269378358</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="58">
         <f ca="1">SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!H5,0,,2+'Table 2.5'!H5))/SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!H5,0,,1+'Table 2.5'!H5))</f>
         <v>1.0073800738007379</v>
       </c>
-      <c r="I32" s="59">
+      <c r="I32" s="58">
         <f ca="1">SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!I5,0,,2+'Table 2.5'!I5))/SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!I5,0,,1+'Table 2.5'!I5))</f>
         <v>1.0019809112191609</v>
       </c>
-      <c r="J32" s="59">
+      <c r="J32" s="58">
         <f ca="1">SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!J5,0,,2+'Table 2.5'!J5))/SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!J5,0,,1+'Table 2.5'!J5))</f>
         <v>1.0003581020590868</v>
       </c>
-      <c r="K32" s="59">
+      <c r="K32" s="58">
         <f ca="1">SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!K5,0,,2+'Table 2.5'!K5))/SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!K5,0,,1+'Table 2.5'!K5))</f>
         <v>1</v>
       </c>
-      <c r="L32" s="59">
+      <c r="L32" s="58">
         <f ca="1">SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!L5,0,,2+'Table 2.5'!L5))/SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!L5,0,,1+'Table 2.5'!L5))</f>
         <v>1.0003646308113034</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -11758,47 +11758,47 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="54" t="s">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="59">
         <f ca="1">SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!C5,0,,2+'Table 2.5'!C5))/SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!C5,0,,1+'Table 2.5'!C5))</f>
         <v>1.2662570404505888</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="59">
         <f ca="1">SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!D5,0,,2+'Table 2.5'!D5))/SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!D5,0,,1+'Table 2.5'!D5))</f>
         <v>1.0365556458164094</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="59">
         <f ca="1">SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!E5,0,,2+'Table 2.5'!E5))/SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!E5,0,,1+'Table 2.5'!E5))</f>
         <v>1.0132796780684106</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="59">
         <f ca="1">SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!F5,0,,2+'Table 2.5'!F5))/SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!F5,0,,1+'Table 2.5'!F5))</f>
         <v>1.0112540192926045</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="59">
         <f ca="1">SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!G5,0,,2+'Table 2.5'!G5))/SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!G5,0,,1+'Table 2.5'!G5))</f>
         <v>1.0051546391752577</v>
       </c>
-      <c r="H34" s="60">
+      <c r="H34" s="59">
         <f ca="1">SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!H5,0,,2+'Table 2.5'!H5))/SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!H5,0,,1+'Table 2.5'!H5))</f>
         <v>1.0085503303536727</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="59">
         <f ca="1">SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!I5,0,,2+'Table 2.5'!I5))/SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!I5,0,,1+'Table 2.5'!I5))</f>
         <v>1.0014936519790889</v>
       </c>
-      <c r="J34" s="60">
+      <c r="J34" s="59">
         <f ca="1">SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!J5,0,,2+'Table 2.5'!J5))/SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!J5,0,,1+'Table 2.5'!J5))</f>
         <v>1.0007285974499089</v>
       </c>
-      <c r="K34" s="60">
+      <c r="K34" s="59">
         <f ca="1">SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!K5,0,,2+'Table 2.5'!K5))/SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!K5,0,,1+'Table 2.5'!K5))</f>
         <v>1</v>
       </c>
-      <c r="L34" s="60">
+      <c r="L34" s="59">
         <f ca="1">SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!L5,0,,2+'Table 2.5'!L5))/SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!L5,0,,1+'Table 2.5'!L5))</f>
         <v>1.0003468609087756</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -11829,7 +11829,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="B40" s="3"/>
     </row>
-    <row r="42" spans="1:16" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -11992,12 +11992,12 @@
       </c>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:16" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G44" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -12018,12 +12018,12 @@
         <v>-7.7093083333860992</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>-8.4298192064118886</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>1.079031306392058E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>3.1023188435673211E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -12123,10 +12123,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:14" s="13" customFormat="1" ht="15.95" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>77</v>
@@ -12170,7 +12170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>80</v>
       </c>
@@ -12288,19 +12288,19 @@
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -12370,7 +12370,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -13390,12 +13390,12 @@
       <c r="O26" s="18"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="N32" s="23"/>
     </row>
@@ -14672,11 +14672,11 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="8" width="12.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="8" width="12.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -14709,16 +14709,16 @@
       <c r="B4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">

--- a/xlfiles/Chapter2.xlsx
+++ b/xlfiles/Chapter2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/xlfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EB3351-18E8-FA43-B518-7431005AA44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2F308-B88F-FD4D-9366-B79019636F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{664FB022-1BC7-BB4C-9AD7-74455482708D}"/>
+    <workbookView xWindow="4880" yWindow="760" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{664FB022-1BC7-BB4C-9AD7-74455482708D}"/>
   </bookViews>
   <sheets>
     <sheet name="B.1 Exposure" sheetId="1" r:id="rId1"/>
@@ -4055,7 +4055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFBD052-653A-4648-936E-EB05816D6A1F}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -4983,8 +4983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C27273-CD99-D446-9435-99E00B9EB402}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6581,7 +6581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F00B14-29DD-164E-8437-4BB4341D5FD8}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
@@ -7870,7 +7870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F6E75D-DECD-1D4E-8D9A-0AA868C6A453}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -12284,7 +12284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2196EB-77E9-A746-98C8-C38437843E4E}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="E34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -14668,7 +14668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA28597-9A62-DF4F-B1AB-39607C543170}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/xlfiles/Chapter2.xlsx
+++ b/xlfiles/Chapter2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/xlfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2F308-B88F-FD4D-9366-B79019636F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6C539B-5538-0048-8B70-E7765E324AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="760" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{664FB022-1BC7-BB4C-9AD7-74455482708D}"/>
+    <workbookView xWindow="-39480" yWindow="1720" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{664FB022-1BC7-BB4C-9AD7-74455482708D}"/>
   </bookViews>
   <sheets>
     <sheet name="B.1 Exposure" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -58,30 +57,16 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="88">
   <si>
     <t xml:space="preserve">Year </t>
   </si>
@@ -341,6 +326,24 @@
   <si>
     <t>OFFSET</t>
   </si>
+  <si>
+    <t>Examples for the last 6 for Offset function, v(2)</t>
+  </si>
+  <si>
+    <t>Direct reference</t>
+  </si>
+  <si>
+    <t>Denominator</t>
+  </si>
+  <si>
+    <t>Numerator</t>
+  </si>
+  <si>
+    <t>Offset reference</t>
+  </si>
+  <si>
+    <t>Try to change D5 for C5 above - you'll get v(1)</t>
+  </si>
 </sst>
 </file>
 
@@ -350,7 +353,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,6 +444,13 @@
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -552,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -630,6 +640,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3479,68 +3490,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>1</v>
-    <v>8</v>
-    <v>5</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="colOffset" t="i"/>
-    <k n="errorType" t="i"/>
-    <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4983,7 +4932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C27273-CD99-D446-9435-99E00B9EB402}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -6413,18 +6362,18 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -6451,12 +6400,12 @@
         <v>-0.97877714888559542</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -6496,7 +6445,7 @@
         <v>-1.7480705329812416</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -6536,13 +6485,13 @@
         <v>0.17410955821774451</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -6551,7 +6500,7 @@
         <v>3.8736989621988922</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -6560,7 +6509,7 @@
         <v>0.53769914915643102</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -6569,7 +6518,7 @@
         <v>0.20250570844257756</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I56" s="5"/>
     </row>
   </sheetData>
@@ -9196,7 +9145,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
@@ -9262,7 +9211,7 @@
         <v>-1.4312158546724731</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -9290,12 +9239,12 @@
         <v>0.23901813418631185</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -9304,7 +9253,7 @@
         <v>0.69518495287076132</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -9313,7 +9262,7 @@
         <v>0.58636122608896146</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -9322,7 +9271,7 @@
         <v>0.3388245373948528</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I56" s="5"/>
     </row>
   </sheetData>
@@ -10622,10 +10571,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E1C22F-43A6-1C49-BA3D-FDB9E9A79EAC}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10637,17 +10586,17 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -10656,7 +10605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -10695,11 +10644,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="27"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1978</v>
       </c>
@@ -10745,7 +10694,7 @@
         <v>1.0016393442622951</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1979</v>
       </c>
@@ -10791,7 +10740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1980</v>
       </c>
@@ -10837,7 +10786,7 @@
         <v>1.0012853470437018</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1981</v>
       </c>
@@ -10883,7 +10832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1982</v>
       </c>
@@ -10929,7 +10878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1983</v>
       </c>
@@ -10975,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1984</v>
       </c>
@@ -11021,7 +10970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1985</v>
       </c>
@@ -11067,7 +11016,7 @@
         <v>1.0010672358591248</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1986</v>
       </c>
@@ -11109,18 +11058,11 @@
         <v>1</v>
       </c>
       <c r="L15" s="33"/>
-      <c r="P15" s="1" cm="1">
-        <f t="array" ref="P15:R20">'Counts data'!$B23:D28</f>
-        <v>509</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>266</v>
-      </c>
-      <c r="R15" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1987</v>
       </c>
@@ -11159,17 +11101,11 @@
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="9"/>
-      <c r="P16" s="1">
-        <v>589</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>210</v>
-      </c>
-      <c r="R16" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1988</v>
       </c>
@@ -11205,17 +11141,14 @@
       <c r="J17" s="33"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="P17" s="1">
-        <v>564</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>196</v>
-      </c>
-      <c r="R17" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O17" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" s="61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1989</v>
       </c>
@@ -11248,17 +11181,25 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
+      <c r="O18" s="1" cm="1">
+        <f t="array" ref="O18:P23">'Counts data'!$B23:C28</f>
+        <v>509</v>
+      </c>
       <c r="P18" s="1">
-        <v>607</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>203</v>
-      </c>
-      <c r="R18" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="R18" s="1" cm="1">
+        <f t="array" ref="R18:T23">'Counts data'!$B23:D28</f>
+        <v>509</v>
+      </c>
+      <c r="S18" s="1">
+        <v>266</v>
+      </c>
+      <c r="T18" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1990</v>
       </c>
@@ -11288,17 +11229,23 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
+      <c r="O19" s="1">
+        <v>589</v>
+      </c>
       <c r="P19" s="1">
-        <v>674</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="R19" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="S19" s="1">
+        <v>210</v>
+      </c>
+      <c r="T19" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1991</v>
       </c>
@@ -11325,17 +11272,23 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
+      <c r="O20" s="1">
+        <v>564</v>
+      </c>
       <c r="P20" s="1">
-        <v>619</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="R20" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+      <c r="S20" s="1">
+        <v>196</v>
+      </c>
+      <c r="T20" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1992</v>
       </c>
@@ -11359,8 +11312,23 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O21" s="1">
+        <v>607</v>
+      </c>
+      <c r="P21" s="1">
+        <v>203</v>
+      </c>
+      <c r="R21" s="1">
+        <v>607</v>
+      </c>
+      <c r="S21" s="1">
+        <v>203</v>
+      </c>
+      <c r="T21" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1993</v>
       </c>
@@ -11381,8 +11349,23 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O22" s="1">
+        <v>674</v>
+      </c>
+      <c r="P22" s="1">
+        <v>169</v>
+      </c>
+      <c r="R22" s="1">
+        <v>674</v>
+      </c>
+      <c r="S22" s="1">
+        <v>169</v>
+      </c>
+      <c r="T22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1994</v>
       </c>
@@ -11400,24 +11383,23 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="O23" s="1" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="O23" ca="1">OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!C5,0,,2+'Table 2.5'!C5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P23" s="1" cm="1">
-        <f t="array" aca="1" ref="P23:R28" ca="1">OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!D5,0,,2+'Table 2.5'!D5)</f>
-        <v>509</v>
-      </c>
-      <c r="Q23" s="1">
-        <f ca="1"/>
-        <v>266</v>
+      <c r="O23" s="1">
+        <v>619</v>
+      </c>
+      <c r="P23" s="1">
+        <v>190</v>
       </c>
       <c r="R23" s="1">
-        <f ca="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+      <c r="S23" s="1">
+        <v>190</v>
+      </c>
+      <c r="T23" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1995</v>
       </c>
@@ -11432,34 +11414,13 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="P24" s="1">
-        <f ca="1"/>
-        <v>589</v>
-      </c>
-      <c r="Q24" s="1">
-        <f ca="1"/>
-        <v>210</v>
-      </c>
-      <c r="R24" s="1">
-        <f ca="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="P25" s="1">
-        <f ca="1"/>
-        <v>564</v>
-      </c>
-      <c r="Q25" s="1">
-        <f ca="1"/>
-        <v>196</v>
-      </c>
-      <c r="R25" s="1">
-        <f ca="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O25" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -11472,20 +11433,14 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="P26" s="1">
-        <f ca="1"/>
-        <v>607</v>
-      </c>
-      <c r="Q26" s="1">
-        <f ca="1"/>
-        <v>203</v>
-      </c>
-      <c r="R26" s="1">
-        <f ca="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O26" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="R26" s="61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
@@ -11493,34 +11448,50 @@
       <c r="D27" s="53" t="s">
         <v>81</v>
       </c>
+      <c r="O27" s="1" cm="1">
+        <f t="array" aca="1" ref="O27:P32" ca="1">OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!D5,0,,1+'Table 2.5'!D5)</f>
+        <v>509</v>
+      </c>
       <c r="P27" s="1">
         <f ca="1"/>
-        <v>674</v>
-      </c>
-      <c r="Q27" s="1">
+        <v>266</v>
+      </c>
+      <c r="R27" s="1" cm="1">
+        <f t="array" aca="1" ref="R27:T32" ca="1">OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!D5,0,,2+'Table 2.5'!D5)</f>
+        <v>509</v>
+      </c>
+      <c r="S27" s="1">
         <f ca="1"/>
-        <v>169</v>
-      </c>
-      <c r="R27" s="1">
+        <v>266</v>
+      </c>
+      <c r="T27" s="1">
         <f ca="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="O28" s="1">
+        <f ca="1"/>
+        <v>589</v>
+      </c>
       <c r="P28" s="1">
         <f ca="1"/>
-        <v>619</v>
-      </c>
-      <c r="Q28" s="1">
-        <f ca="1"/>
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="R28" s="1">
         <f ca="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="S28" s="1">
+        <f ca="1"/>
+        <v>210</v>
+      </c>
+      <c r="T28" s="1">
+        <f ca="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -11564,8 +11535,28 @@
         <f>SUM('Counts data'!$B13:L20)/SUM('Counts data'!$B13:K20)</f>
         <v>1.000448631673396</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="O29" s="1">
+        <f ca="1"/>
+        <v>564</v>
+      </c>
+      <c r="P29" s="1">
+        <f ca="1"/>
+        <v>196</v>
+      </c>
+      <c r="R29" s="1">
+        <f ca="1"/>
+        <v>564</v>
+      </c>
+      <c r="S29" s="1">
+        <f ca="1"/>
+        <v>196</v>
+      </c>
+      <c r="T29" s="1">
+        <f ca="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="53" t="s">
         <v>81</v>
       </c>
@@ -11609,8 +11600,28 @@
         <f ca="1">SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!L5,2+'Table 2.5'!L5))/SUM(OFFSET('Counts data'!$B$13:$L$30,0,0,17-'Table 2.5'!L5,1+'Table 2.5'!L5))</f>
         <v>1.000448631673396</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O30" s="1">
+        <f ca="1"/>
+        <v>607</v>
+      </c>
+      <c r="P30" s="1">
+        <f ca="1"/>
+        <v>203</v>
+      </c>
+      <c r="R30" s="1">
+        <f ca="1"/>
+        <v>607</v>
+      </c>
+      <c r="S30" s="1">
+        <f ca="1"/>
+        <v>203</v>
+      </c>
+      <c r="T30" s="1">
+        <f ca="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -11654,8 +11665,28 @@
         <f>SUM('Counts data'!$B15:L20)/SUM('Counts data'!$B15:K20)</f>
         <v>1.0003646308113034</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="O31" s="1">
+        <f ca="1"/>
+        <v>674</v>
+      </c>
+      <c r="P31" s="1">
+        <f ca="1"/>
+        <v>169</v>
+      </c>
+      <c r="R31" s="1">
+        <f ca="1"/>
+        <v>674</v>
+      </c>
+      <c r="S31" s="1">
+        <f ca="1"/>
+        <v>169</v>
+      </c>
+      <c r="T31" s="1">
+        <f ca="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="53" t="s">
         <v>81</v>
       </c>
@@ -11699,15 +11730,28 @@
         <f ca="1">SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!L5,0,,2+'Table 2.5'!L5))/SUM(OFFSET('Counts data'!$B$24:$M$29,-'Table 2.5'!L5,0,,1+'Table 2.5'!L5))</f>
         <v>1.0003646308113034</v>
       </c>
-      <c r="O32" s="1" cm="1">
-        <f t="array" ref="O32:P37">'Counts data'!$B24:C29</f>
-        <v>589</v>
+      <c r="O32" s="1">
+        <f ca="1"/>
+        <v>619</v>
       </c>
       <c r="P32" s="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <f ca="1"/>
+        <v>190</v>
+      </c>
+      <c r="R32" s="1">
+        <f ca="1"/>
+        <v>619</v>
+      </c>
+      <c r="S32" s="1">
+        <f ca="1"/>
+        <v>190</v>
+      </c>
+      <c r="T32" s="1">
+        <f ca="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -11751,14 +11795,8 @@
         <f>SUM('Counts data'!$B18:L20)/SUM('Counts data'!$B18:K20)</f>
         <v>1.0003468609087756</v>
       </c>
-      <c r="O33" s="1">
-        <v>564</v>
-      </c>
-      <c r="P33" s="1">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B34" s="53" t="s">
         <v>81</v>
       </c>
@@ -11802,14 +11840,11 @@
         <f ca="1">SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!L5,0,,2+'Table 2.5'!L5))/SUM(OFFSET('Counts data'!$B$27:$M$29,-'Table 2.5'!L5,0,,1+'Table 2.5'!L5))</f>
         <v>1.0003468609087756</v>
       </c>
-      <c r="O34" s="1">
-        <v>607</v>
-      </c>
-      <c r="P34" s="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -11822,14 +11857,8 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
-      <c r="O35" s="1">
-        <v>674</v>
-      </c>
-      <c r="P35" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -11874,14 +11903,8 @@
         <v>1.000448631673396</v>
       </c>
       <c r="M36" s="33"/>
-      <c r="O36" s="1">
-        <v>619</v>
-      </c>
-      <c r="P36" s="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -11896,14 +11919,8 @@
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
-      <c r="O37" s="1">
-        <v>660</v>
-      </c>
-      <c r="P37" s="1">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
@@ -11916,7 +11933,7 @@
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
@@ -11966,13 +11983,13 @@
         <v>1.0003102318843566</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="3"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -11986,18 +12003,18 @@
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G44" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -12018,12 +12035,12 @@
         <v>-7.7093083333860992</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -12051,7 +12068,7 @@
         <v>-8.4298192064118886</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -14192,7 +14209,7 @@
         <v>874.30073744829576</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>1989</v>
       </c>
@@ -14257,7 +14274,7 @@
         <v>872.69421857239422</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>1990</v>
       </c>
@@ -14322,7 +14339,7 @@
         <v>816.45887561257871</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>1991</v>
       </c>
@@ -14387,7 +14404,7 @@
         <v>869.83638291699174</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>1992</v>
       </c>
@@ -14452,7 +14469,7 @@
         <v>900.20157433658494</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>1993</v>
       </c>
@@ -14517,7 +14534,7 @@
         <v>886.09436254215257</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>1994</v>
       </c>
@@ -14582,7 +14599,7 @@
         <v>887.14952914580078</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>1995</v>
       </c>
@@ -14647,18 +14664,18 @@
         <v>903.06597145039575</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
     </row>
-    <row r="52" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O52" s="25">
         <f>SUM(O33:O50)</f>
         <v>398.36704327504503</v>
       </c>
       <c r="P52" s="3"/>
     </row>
-    <row r="53" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlfiles/Chapter2.xlsx
+++ b/xlfiles/Chapter2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/xlfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6C539B-5538-0048-8B70-E7765E324AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A9B6EA-3D3F-9B42-8C09-D57075B84F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-39480" yWindow="1720" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{664FB022-1BC7-BB4C-9AD7-74455482708D}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -327,9 +327,6 @@
     <t>OFFSET</t>
   </si>
   <si>
-    <t>Examples for the last 6 for Offset function, v(2)</t>
-  </si>
-  <si>
     <t>Direct reference</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>Try to change D5 for C5 above - you'll get v(1)</t>
+  </si>
+  <si>
+    <t>Examples for the last 6 for Offset function, v(1)</t>
   </si>
 </sst>
 </file>
@@ -637,10 +637,10 @@
     <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10574,7 +10574,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="L15" s="33"/>
       <c r="O15" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -11102,7 +11102,7 @@
       <c r="K16" s="33"/>
       <c r="L16" s="9"/>
       <c r="O16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -11141,11 +11141,11 @@
       <c r="J17" s="33"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="O17" s="61" t="s">
+      <c r="O17" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="60" t="s">
         <v>84</v>
-      </c>
-      <c r="R17" s="61" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -11417,7 +11417,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -11433,11 +11433,11 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="O26" s="61" t="s">
+      <c r="O26" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="R26" s="60" t="s">
         <v>84</v>
-      </c>
-      <c r="R26" s="61" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -11841,7 +11841,7 @@
         <v>1.0003468609087756</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -12119,7 +12119,7 @@
         <v>0.58701247386534749</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>49</v>
       </c>
@@ -12144,12 +12144,12 @@
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C59" s="3">
         <v>0</v>
       </c>
@@ -14726,16 +14726,16 @@
       <c r="B4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">

--- a/xlfiles/Chapter2.xlsx
+++ b/xlfiles/Chapter2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/xlfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A9B6EA-3D3F-9B42-8C09-D57075B84F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9B3119-D54C-8C4F-96B2-74CC613021AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39480" yWindow="1720" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{664FB022-1BC7-BB4C-9AD7-74455482708D}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="21580" activeTab="5" xr2:uid="{664FB022-1BC7-BB4C-9AD7-74455482708D}"/>
   </bookViews>
   <sheets>
     <sheet name="B.1 Exposure" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="88">
   <si>
     <t xml:space="preserve">Year </t>
   </si>
@@ -9284,7 +9284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D719406-1CA7-EB4A-942D-BEBB5B1EDA6A}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
@@ -10573,8 +10573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E1C22F-43A6-1C49-BA3D-FDB9E9A79EAC}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10601,9 +10601,6 @@
         <v>3</v>
       </c>
       <c r="B4" s="26"/>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
